--- a/StructureDefinition-TS.xlsx
+++ b/StructureDefinition-TS.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-10T20:10:57+00:00</t>
+    <t>2022-10-10T20:11:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-TS.xlsx
+++ b/StructureDefinition-TS.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-10T20:11:06+00:00</t>
+    <t>2022-10-10T20:11:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-TS.xlsx
+++ b/StructureDefinition-TS.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-21T23:00:19+00:00</t>
+    <t>2022-10-21T23:01:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-TS.xlsx
+++ b/StructureDefinition-TS.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-21T23:01:56+00:00</t>
+    <t>2022-10-21T23:10:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-TS.xlsx
+++ b/StructureDefinition-TS.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-21T23:10:36+00:00</t>
+    <t>2022-10-21T23:24:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-TS.xlsx
+++ b/StructureDefinition-TS.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-21T23:24:13+00:00</t>
+    <t>2022-10-23T08:50:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-TS.xlsx
+++ b/StructureDefinition-TS.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-23T08:50:48+00:00</t>
+    <t>2022-10-23T08:58:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-TS.xlsx
+++ b/StructureDefinition-TS.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-23T08:58:51+00:00</t>
+    <t>2022-10-23T16:03:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-TS.xlsx
+++ b/StructureDefinition-TS.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-23T16:03:39+00:00</t>
+    <t>2022-10-23T18:15:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-TS.xlsx
+++ b/StructureDefinition-TS.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-23T18:15:07+00:00</t>
+    <t>2022-10-23T19:27:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -234,7 +234,7 @@
     <t>*</t>
   </si>
   <si>
-    <t xml:space="preserve"> TimeStamp </t>
+    <t>TimeStamp</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1

--- a/StructureDefinition-TS.xlsx
+++ b/StructureDefinition-TS.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-23T19:27:30+00:00</t>
+    <t>2022-10-23T19:35:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-TS.xlsx
+++ b/StructureDefinition-TS.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-23T19:35:12+00:00</t>
+    <t>2022-10-23T20:13:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-TS.xlsx
+++ b/StructureDefinition-TS.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-23T20:13:34+00:00</t>
+    <t>2022-10-25T12:14:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-TS.xlsx
+++ b/StructureDefinition-TS.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-25T12:14:01+00:00</t>
+    <t>2022-10-25T13:47:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-TS.xlsx
+++ b/StructureDefinition-TS.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-25T13:47:24+00:00</t>
+    <t>2022-10-30T17:01:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-TS.xlsx
+++ b/StructureDefinition-TS.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-30T17:01:43+00:00</t>
+    <t>2022-10-30T18:15:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-TS.xlsx
+++ b/StructureDefinition-TS.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-30T18:15:34+00:00</t>
+    <t>2022-10-30T20:04:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-TS.xlsx
+++ b/StructureDefinition-TS.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-30T20:04:00+00:00</t>
+    <t>2022-10-30T21:50:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-TS.xlsx
+++ b/StructureDefinition-TS.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-30T21:50:47+00:00</t>
+    <t>2022-10-30T22:04:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-TS.xlsx
+++ b/StructureDefinition-TS.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-30T22:04:36+00:00</t>
+    <t>2022-10-30T22:13:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-TS.xlsx
+++ b/StructureDefinition-TS.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-30T22:13:17+00:00</t>
+    <t>2022-11-02T06:16:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-TS.xlsx
+++ b/StructureDefinition-TS.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-02T06:16:24+00:00</t>
+    <t>2022-11-02T20:48:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-TS.xlsx
+++ b/StructureDefinition-TS.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-02T20:48:31+00:00</t>
+    <t>2022-11-03T14:07:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-TS.xlsx
+++ b/StructureDefinition-TS.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-05T15:30:00+00:00</t>
+    <t>2022-11-05T15:35:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-TS.xlsx
+++ b/StructureDefinition-TS.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-05T15:35:25+00:00</t>
+    <t>2022-11-06T17:03:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-TS.xlsx
+++ b/StructureDefinition-TS.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-06T17:03:22+00:00</t>
+    <t>2022-11-06T21:19:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-TS.xlsx
+++ b/StructureDefinition-TS.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-06T21:19:48+00:00</t>
+    <t>2022-11-06T22:26:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-TS.xlsx
+++ b/StructureDefinition-TS.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-07T21:05:10+00:00</t>
+    <t>2022-11-07T21:23:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-TS.xlsx
+++ b/StructureDefinition-TS.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-07T21:23:46+00:00</t>
+    <t>2022-11-07T21:31:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-TS.xlsx
+++ b/StructureDefinition-TS.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-07T21:31:45+00:00</t>
+    <t>2022-11-08T20:50:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-TS.xlsx
+++ b/StructureDefinition-TS.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-11T12:45:51+00:00</t>
+    <t>2022-11-11T12:48:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-TS.xlsx
+++ b/StructureDefinition-TS.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-11T12:48:43+00:00</t>
+    <t>2022-11-11T13:10:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-TS.xlsx
+++ b/StructureDefinition-TS.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://unicom-project.eu/fhir/StructureDefinition/TS</t>
+    <t>https://hl7-eu.github.io/unicom-ig/branches/mpd-r5/StructureDefinition/TS</t>
   </si>
   <si>
     <t>Version</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-11T13:10:08+00:00</t>
+    <t>2022-11-11T15:50:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -84,7 +84,7 @@
     <t>FHIR Version</t>
   </si>
   <si>
-    <t>4.3.0</t>
+    <t>5.0.0-ballot</t>
   </si>
   <si>
     <t>Kind</t>

--- a/StructureDefinition-TS.xlsx
+++ b/StructureDefinition-TS.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://hl7-eu.github.io/unicom-ig/branches/mpd-r5/StructureDefinition/TS</t>
+    <t>http://unicom-project.eu/fhir/StructureDefinition/TS</t>
   </si>
   <si>
     <t>Version</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-11T20:48:35+00:00</t>
+    <t>2022-11-12T19:50:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -84,7 +84,7 @@
     <t>FHIR Version</t>
   </si>
   <si>
-    <t>5.0.0-ballot</t>
+    <t>4.3.0</t>
   </si>
   <si>
     <t>Kind</t>

--- a/StructureDefinition-TS.xlsx
+++ b/StructureDefinition-TS.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-12T19:50:48+00:00</t>
+    <t>2022-11-12T20:00:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-TS.xlsx
+++ b/StructureDefinition-TS.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://unicom-project.eu/fhir/StructureDefinition/TS</t>
+    <t>https://hl7-eu.github.io/unicom-ig/branches/mpd-r5/StructureDefinition/TS</t>
   </si>
   <si>
     <t>Version</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-12T20:00:33+00:00</t>
+    <t>2022-11-14T19:25:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -84,7 +84,7 @@
     <t>FHIR Version</t>
   </si>
   <si>
-    <t>4.3.0</t>
+    <t>5.0.0-ballot</t>
   </si>
   <si>
     <t>Kind</t>

--- a/StructureDefinition-TS.xlsx
+++ b/StructureDefinition-TS.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://hl7-eu.github.io/unicom-ig/branches/mpd-r5/StructureDefinition/TS</t>
+    <t>http://unicom-project.eu/fhir/StructureDefinition/TS</t>
   </si>
   <si>
     <t>Version</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-14T19:25:53+00:00</t>
+    <t>2022-11-16T21:11:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -84,7 +84,7 @@
     <t>FHIR Version</t>
   </si>
   <si>
-    <t>5.0.0-ballot</t>
+    <t>4.3.0</t>
   </si>
   <si>
     <t>Kind</t>

--- a/StructureDefinition-TS.xlsx
+++ b/StructureDefinition-TS.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-16T21:11:51+00:00</t>
+    <t>2022-11-16T21:23:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-TS.xlsx
+++ b/StructureDefinition-TS.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-16T21:23:11+00:00</t>
+    <t>2022-11-17T06:36:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-TS.xlsx
+++ b/StructureDefinition-TS.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://unicom-project.eu/fhir/StructureDefinition/TS</t>
+    <t>https://hl7-eu.github.io/unicom-ig/branches/mpd-r5/StructureDefinition/TS</t>
   </si>
   <si>
     <t>Version</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-17T06:36:33+00:00</t>
+    <t>2022-11-17T17:44:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -84,7 +84,7 @@
     <t>FHIR Version</t>
   </si>
   <si>
-    <t>4.3.0</t>
+    <t>5.0.0-ballot</t>
   </si>
   <si>
     <t>Kind</t>

--- a/StructureDefinition-TS.xlsx
+++ b/StructureDefinition-TS.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://hl7-eu.github.io/unicom-ig/branches/mpd-r5/StructureDefinition/TS</t>
+    <t>http://unicom-project.eu/fhir/StructureDefinition/TS</t>
   </si>
   <si>
     <t>Version</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-17T17:44:56+00:00</t>
+    <t>2022-11-18T19:44:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -84,7 +84,7 @@
     <t>FHIR Version</t>
   </si>
   <si>
-    <t>5.0.0-ballot</t>
+    <t>4.3.0</t>
   </si>
   <si>
     <t>Kind</t>

--- a/StructureDefinition-TS.xlsx
+++ b/StructureDefinition-TS.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-18T19:44:59+00:00</t>
+    <t>2022-11-18T19:50:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-TS.xlsx
+++ b/StructureDefinition-TS.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-18T19:50:12+00:00</t>
+    <t>2022-11-18T19:51:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-TS.xlsx
+++ b/StructureDefinition-TS.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-18T19:51:53+00:00</t>
+    <t>2022-11-18T19:52:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-TS.xlsx
+++ b/StructureDefinition-TS.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-18T19:52:09+00:00</t>
+    <t>2022-11-18T19:57:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-TS.xlsx
+++ b/StructureDefinition-TS.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-18T19:57:45+00:00</t>
+    <t>2022-11-19T06:10:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-TS.xlsx
+++ b/StructureDefinition-TS.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-19T22:26:15+00:00</t>
+    <t>2022-11-19T22:53:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-TS.xlsx
+++ b/StructureDefinition-TS.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-19T22:53:07+00:00</t>
+    <t>2022-11-20T07:00:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-TS.xlsx
+++ b/StructureDefinition-TS.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-20T07:00:59+00:00</t>
+    <t>2022-11-20T07:03:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-TS.xlsx
+++ b/StructureDefinition-TS.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-20T07:03:41+00:00</t>
+    <t>2022-11-20T09:28:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-TS.xlsx
+++ b/StructureDefinition-TS.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://unicom-project.eu/fhir/StructureDefinition/TS</t>
+    <t>http://hl7-eu.github.io/unicom-ig/StructureDefinition/TS</t>
   </si>
   <si>
     <t>Version</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-20T09:28:17+00:00</t>
+    <t>2022-11-20T13:37:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-TS.xlsx
+++ b/StructureDefinition-TS.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-20T13:37:56+00:00</t>
+    <t>2022-11-20T14:32:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-TS.xlsx
+++ b/StructureDefinition-TS.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://hl7-eu.github.io/unicom-ig/StructureDefinition/TS</t>
+    <t>http://unicom-project.eu/fhir/StructureDefinition/TS</t>
   </si>
   <si>
     <t>Version</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-20T14:32:03+00:00</t>
+    <t>2022-11-20T17:12:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-TS.xlsx
+++ b/StructureDefinition-TS.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-20T17:12:02+00:00</t>
+    <t>2022-11-20T17:48:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-TS.xlsx
+++ b/StructureDefinition-TS.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-20T17:48:06+00:00</t>
+    <t>2022-11-20T20:12:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-TS.xlsx
+++ b/StructureDefinition-TS.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-20T20:12:04+00:00</t>
+    <t>2022-11-20T20:23:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-TS.xlsx
+++ b/StructureDefinition-TS.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-20T20:23:35+00:00</t>
+    <t>2022-11-21T10:47:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-TS.xlsx
+++ b/StructureDefinition-TS.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-21T10:47:26+00:00</t>
+    <t>2022-11-22T13:07:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-TS.xlsx
+++ b/StructureDefinition-TS.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://unicom-project.eu/fhir/StructureDefinition/TS</t>
+    <t>http://hl7-eu.github.io/unicom-ig/StructureDefinition/TS</t>
   </si>
   <si>
     <t>Version</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-22T13:07:41+00:00</t>
+    <t>2022-11-22T13:49:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-TS.xlsx
+++ b/StructureDefinition-TS.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-22T13:49:32+00:00</t>
+    <t>2022-11-22T14:02:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-TS.xlsx
+++ b/StructureDefinition-TS.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://hl7-eu.github.io/unicom-ig/StructureDefinition/TS</t>
+    <t>http://unicom-project.eu/fhir/StructureDefinition/TS</t>
   </si>
   <si>
     <t>Version</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-22T14:02:44+00:00</t>
+    <t>2022-11-22T20:42:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-TS.xlsx
+++ b/StructureDefinition-TS.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-22T20:42:27+00:00</t>
+    <t>2022-11-24T22:13:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-TS.xlsx
+++ b/StructureDefinition-TS.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://unicom-project.eu/fhir/StructureDefinition/TS</t>
+    <t>http://hl7-eu.github.io/unicom-ig/StructureDefinition/TS</t>
   </si>
   <si>
     <t>Version</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-24T22:13:14+00:00</t>
+    <t>2022-11-25T11:25:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-TS.xlsx
+++ b/StructureDefinition-TS.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-25T11:25:38+00:00</t>
+    <t>2022-11-25T11:48:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-TS.xlsx
+++ b/StructureDefinition-TS.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-25T22:48:13+00:00</t>
+    <t>2022-11-25T22:49:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-TS.xlsx
+++ b/StructureDefinition-TS.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="56">
   <si>
     <t>Property</t>
   </si>
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://hl7-eu.github.io/unicom-ig/StructureDefinition/TS</t>
+    <t>http://unicom-project.eu/fhir/StructureDefinition/TS</t>
   </si>
   <si>
     <t>Version</t>
@@ -45,7 +45,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>active</t>
+    <t>draft</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-25T22:49:32+00:00</t>
+    <t>2023-06-29T18:56:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Time stamp</t>
+    <t>TimeStamp</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -84,7 +84,7 @@
     <t>FHIR Version</t>
   </si>
   <si>
-    <t>4.3.0</t>
+    <t>5.0.0</t>
   </si>
   <si>
     <t>Kind</t>
@@ -117,114 +117,6 @@
     <t>constraint</t>
   </si>
   <si>
-    <t>Path</t>
-  </si>
-  <si>
-    <t>Slice Name</t>
-  </si>
-  <si>
-    <t>Alias(s)</t>
-  </si>
-  <si>
-    <t>Label</t>
-  </si>
-  <si>
-    <t>Min</t>
-  </si>
-  <si>
-    <t>Max</t>
-  </si>
-  <si>
-    <t>Must Support?</t>
-  </si>
-  <si>
-    <t>Is Modifier?</t>
-  </si>
-  <si>
-    <t>Is Summary?</t>
-  </si>
-  <si>
-    <t>Type(s)</t>
-  </si>
-  <si>
-    <t>Short</t>
-  </si>
-  <si>
-    <t>Definition</t>
-  </si>
-  <si>
-    <t>Comments</t>
-  </si>
-  <si>
-    <t>Requirements</t>
-  </si>
-  <si>
-    <t>Default Value</t>
-  </si>
-  <si>
-    <t>Meaning When Missing</t>
-  </si>
-  <si>
-    <t>Fixed Value</t>
-  </si>
-  <si>
-    <t>Pattern</t>
-  </si>
-  <si>
-    <t>Example</t>
-  </si>
-  <si>
-    <t>Minimum Value</t>
-  </si>
-  <si>
-    <t>Maximum Value</t>
-  </si>
-  <si>
-    <t>Maximum Length</t>
-  </si>
-  <si>
-    <t>Binding Strength</t>
-  </si>
-  <si>
-    <t>Binding Description</t>
-  </si>
-  <si>
-    <t>Binding Value Set</t>
-  </si>
-  <si>
-    <t>Code</t>
-  </si>
-  <si>
-    <t>Slicing Discriminator</t>
-  </si>
-  <si>
-    <t>Slicing Description</t>
-  </si>
-  <si>
-    <t>Slicing Ordered</t>
-  </si>
-  <si>
-    <t>Slicing Rules</t>
-  </si>
-  <si>
-    <t>Base Path</t>
-  </si>
-  <si>
-    <t>Base Min</t>
-  </si>
-  <si>
-    <t>Base Max</t>
-  </si>
-  <si>
-    <t>Condition(s)</t>
-  </si>
-  <si>
-    <t>Constraint(s)</t>
-  </si>
-  <si>
-    <t>Mapping: RIM Mapping</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -234,32 +126,35 @@
     <t>*</t>
   </si>
   <si>
-    <t>TimeStamp</t>
+    <t>Timestamp</t>
+  </si>
+  <si>
+    <t>A quantity specifying a point on the axis of natural time. A point in time is most often represented as a calendar expression.</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
 </t>
   </si>
   <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">id
-</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
     <t>Element.extension</t>
   </si>
   <si>
@@ -274,7 +169,7 @@
     <t>Additional content defined by implementations</t>
   </si>
   <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and managable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
@@ -413,10 +308,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
@@ -586,7 +481,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ4"/>
+  <dimension ref="A1:AK3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -596,453 +491,350 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="18.1875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="12.66015625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.64453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="18.1875" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="12.64453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="6" max="6" width="2.2109375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="2.2109375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="1.04296875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="44.26171875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="10.04296875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="21.57421875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="19.625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="18.1875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="10.26171875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="5.62109375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="18.1875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="2.2109375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="2.2109375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" hidden="true" width="8.0" customWidth="false"/>
+    <col min="17" max="17" width="20.703125" customWidth="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="24.98046875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="3.94921875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="1">
-        <v>34</v>
-      </c>
-      <c r="B1" t="s" s="1">
+      <c r="A1" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="E1" s="2"/>
+      <c r="F1" t="s" s="2">
         <v>35</v>
       </c>
-      <c r="C1" t="s" s="1">
+      <c r="G1" t="s" s="2">
         <v>36</v>
       </c>
-      <c r="D1" t="s" s="1">
+      <c r="H1" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="I1" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="J1" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="K1" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="L1" t="s" s="2">
         <v>37</v>
       </c>
-      <c r="E1" t="s" s="1">
+      <c r="M1" t="s" s="2">
         <v>38</v>
       </c>
-      <c r="F1" t="s" s="1">
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="Q1" s="2"/>
+      <c r="R1" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="S1" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="T1" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="U1" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="V1" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="W1" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="X1" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="Y1" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="Z1" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AA1" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AB1" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AC1" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AD1" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AE1" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AF1" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="AG1" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AH1" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI1" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AK1" t="s" s="2">
         <v>39</v>
-      </c>
-      <c r="G1" t="s" s="1">
-        <v>40</v>
-      </c>
-      <c r="H1" t="s" s="1">
-        <v>41</v>
-      </c>
-      <c r="I1" t="s" s="1">
-        <v>42</v>
-      </c>
-      <c r="J1" t="s" s="1">
-        <v>43</v>
-      </c>
-      <c r="K1" t="s" s="1">
-        <v>44</v>
-      </c>
-      <c r="L1" t="s" s="1">
-        <v>45</v>
-      </c>
-      <c r="M1" t="s" s="1">
-        <v>46</v>
-      </c>
-      <c r="N1" t="s" s="1">
-        <v>47</v>
-      </c>
-      <c r="O1" t="s" s="1">
-        <v>48</v>
-      </c>
-      <c r="P1" t="s" s="1">
-        <v>49</v>
-      </c>
-      <c r="Q1" t="s" s="1">
-        <v>50</v>
-      </c>
-      <c r="R1" t="s" s="1">
-        <v>51</v>
-      </c>
-      <c r="S1" t="s" s="1">
-        <v>52</v>
-      </c>
-      <c r="T1" t="s" s="1">
-        <v>53</v>
-      </c>
-      <c r="U1" t="s" s="1">
-        <v>54</v>
-      </c>
-      <c r="V1" t="s" s="1">
-        <v>55</v>
-      </c>
-      <c r="W1" t="s" s="1">
-        <v>56</v>
-      </c>
-      <c r="X1" t="s" s="1">
-        <v>57</v>
-      </c>
-      <c r="Y1" t="s" s="1">
-        <v>58</v>
-      </c>
-      <c r="Z1" t="s" s="1">
-        <v>59</v>
-      </c>
-      <c r="AA1" t="s" s="1">
-        <v>60</v>
-      </c>
-      <c r="AB1" t="s" s="1">
-        <v>61</v>
-      </c>
-      <c r="AC1" t="s" s="1">
-        <v>62</v>
-      </c>
-      <c r="AD1" t="s" s="1">
-        <v>63</v>
-      </c>
-      <c r="AE1" t="s" s="1">
-        <v>64</v>
-      </c>
-      <c r="AF1" t="s" s="1">
-        <v>65</v>
-      </c>
-      <c r="AG1" t="s" s="1">
-        <v>66</v>
-      </c>
-      <c r="AH1" t="s" s="1">
-        <v>67</v>
-      </c>
-      <c r="AI1" t="s" s="1">
-        <v>68</v>
-      </c>
-      <c r="AJ1" t="s" s="1">
-        <v>69</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>27</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" t="s" s="2">
-        <v>71</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
-        <v>72</v>
+        <v>35</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="M2" s="2"/>
+        <v>43</v>
+      </c>
+      <c r="M2" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="N2" s="2"/>
-      <c r="O2" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="P2" s="2"/>
-      <c r="Q2" t="s" s="2">
-        <v>70</v>
-      </c>
+      <c r="O2" s="2"/>
+      <c r="P2" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>71</v>
+        <v>40</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>72</v>
+        <v>35</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>74</v>
+        <v>41</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>75</v>
+        <v>34</v>
+      </c>
+      <c r="AK2" t="s" s="2">
+        <v>39</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="D3" s="2"/>
-      <c r="E3" t="s" s="2">
-        <v>71</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>78</v>
+        <v>34</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="P3" s="2"/>
-      <c r="Q3" t="s" s="2">
-        <v>70</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="M3" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="N3" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="O3" s="2"/>
+      <c r="P3" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>71</v>
+        <v>46</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="E4" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="F4" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="G4" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="H4" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="I4" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="J4" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="K4" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="L4" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="M4" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="N4" s="2"/>
-      <c r="O4" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="P4" s="2"/>
-      <c r="Q4" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="R4" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="S4" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="T4" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="U4" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="V4" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="W4" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="X4" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="Y4" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="Z4" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AA4" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AB4" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AC4" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AD4" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AE4" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF4" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AG4" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AH4" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AI4" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AJ4" t="s" s="2">
-        <v>75</v>
+        <v>55</v>
+      </c>
+      <c r="AK3" t="s" s="2">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
